--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2267.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2267.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.146877591895455</v>
+        <v>1.221774935722351</v>
       </c>
       <c r="B1">
-        <v>2.311437193136888</v>
+        <v>2.723650217056274</v>
       </c>
       <c r="C1">
-        <v>5.599820633083165</v>
+        <v>4.478193759918213</v>
       </c>
       <c r="D1">
-        <v>2.815873847140849</v>
+        <v>2.126012325286865</v>
       </c>
       <c r="E1">
-        <v>1.226434034899489</v>
+        <v>1.160516858100891</v>
       </c>
     </row>
   </sheetData>
